--- a/Documents/Data/Personal Development/category-PersionalDevelopment.xlsx
+++ b/Documents/Data/Personal Development/category-PersionalDevelopment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>Author's Name</t>
   </si>
@@ -124,14 +124,68 @@
   </si>
   <si>
     <t xml:space="preserve">Simon Sinek's recent video on 'The Millennial Question' went viral with over 150 million views. Start with Why is a global bestseller and the TED Talk based on it is the third most watched of all time. Why are some people and organisations more inventive, pioneering and successful than others? And why are they able to repeat their success again and again? In business, it doesn't matter what you do, it matters WHY you do it. </t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>ISBN13</t>
+  </si>
+  <si>
+    <t>How to Win Friends and Influence People</t>
+  </si>
+  <si>
+    <t>Strengths Finder 2.0 : A New and Upgraded Edition of the Online Test from Gallup's Now Discover Your Strengths</t>
+  </si>
+  <si>
+    <t>The 4-hour Work Week : Escape the 9-5, Live Anywhere and Join the New Rich</t>
+  </si>
+  <si>
+    <t>Mindset : Changing the Way You Think to Fulfil Your Potential</t>
+  </si>
+  <si>
+    <t>The Subtle Art of Not Giving a F*Ck : A Counterintuitive Approach to Living a Good Life</t>
+  </si>
+  <si>
+    <t>Influence : The Psychology of Persuasion</t>
+  </si>
+  <si>
+    <t>Lean In : Women, Work, and the Will to Lead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tools of Titans : The Tactics, Routines, and Habits of Billionaires, Icons, and World-Class Performers
+</t>
+  </si>
+  <si>
+    <t>In the Company of Women</t>
+  </si>
+  <si>
+    <t>Start with Why : How Great Leaders Inspire Everyone to Take Action</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -159,11 +213,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -173,6 +239,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -221,7 +290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,9 +323,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,6 +375,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -465,244 +568,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.75" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="26.75" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8">
+        <v>9781439199190</v>
+      </c>
+      <c r="G2" s="3">
+        <v>6.66</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1">
+      <c r="I2" s="2">
         <v>40680</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8">
+        <v>9781595620156</v>
+      </c>
+      <c r="G3" s="3">
+        <v>22.48</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1">
+      <c r="I3" s="2">
         <v>42198</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8">
+        <v>9780091929114</v>
+      </c>
+      <c r="G4" s="3">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1">
+      <c r="I4" s="2">
         <v>41439</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8">
+        <v>9781780332000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10.52</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1">
+      <c r="I5" s="2">
         <v>40941</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8">
+        <v>9780062457714</v>
+      </c>
+      <c r="G6" s="3">
+        <v>15.69</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1">
+      <c r="I6" s="2">
         <v>42691</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8">
+        <v>9780061241895</v>
+      </c>
+      <c r="G7" s="3">
+        <v>12.74</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1">
+      <c r="I7" s="2">
         <v>40730</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8">
+        <v>9780753541647</v>
+      </c>
+      <c r="G8" s="3">
+        <v>9.09</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1">
+      <c r="I8" s="2">
         <v>42222</v>
       </c>
-      <c r="F8" t="s">
+      <c r="J8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="8">
+        <v>9781785041273</v>
+      </c>
+      <c r="G9" s="3">
+        <v>21.79</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="1">
+      <c r="I9" s="2">
         <v>42718</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="8">
+        <v>9781579655976</v>
+      </c>
+      <c r="G10" s="3">
+        <v>31.39</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="1">
+      <c r="I10" s="2">
         <v>42647</v>
       </c>
-      <c r="F10" t="s">
+      <c r="J10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="8">
+        <v>9780241958223</v>
+      </c>
+      <c r="G11" s="3">
+        <v>9.59</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="1">
+      <c r="I11" s="2">
         <v>40830</v>
       </c>
-      <c r="F11" t="s">
+      <c r="J11" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
